--- a/C42-P2-FINAL/Fiche autoévaluation.xlsx
+++ b/C42-P2-FINAL/Fiche autoévaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2059171\Desktop\GIT\droneX\C42-P2-FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54408EF-9996-401F-8CBD-85B8A3E8FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71752EBD-D28E-48D4-BA4C-20A5F923CC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,10 +338,10 @@
     <t>Lavoie, Catherine</t>
   </si>
   <si>
-    <t>Jouinvil, Benjamin</t>
-  </si>
-  <si>
     <t>Maltais, Francois</t>
+  </si>
+  <si>
+    <t>Joinvil, Benjamin</t>
   </si>
 </sst>
 </file>
@@ -1430,6 +1430,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1532,14 +1540,6 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1582,8 +1582,9 @@
         <color rgb="FF800000"/>
       </font>
       <border>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color rgb="FF800000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1591,9 +1592,8 @@
         <color rgb="FF800000"/>
       </font>
       <border>
-        <bottom style="thin">
-          <color rgb="FF800000"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1939,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1965,128 +1965,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="91" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="D3" s="109" t="s">
+      <c r="B3" s="91"/>
+      <c r="D3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113">
         <v>6</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
+      <c r="B4" s="91"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="91"/>
+      <c r="D5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="93">
-        <v>0</v>
-      </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="95">
+        <v>0</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="G6" s="95" t="s">
+      <c r="B6" s="91"/>
+      <c r="G6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="91"/>
+      <c r="D7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="96">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="98">
         <v>0.6</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
-      <c r="D8" s="105" t="s">
+      <c r="B8" s="91"/>
+      <c r="D8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="98">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="100">
         <f>1-G7</f>
         <v>0.4</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="91"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="89"/>
-      <c r="D10" s="103" t="s">
+      <c r="B10" s="91"/>
+      <c r="D10" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="91">
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="93">
         <v>0.5</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="D11" s="101" t="s">
+      <c r="B11" s="91"/>
+      <c r="D11" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="87">
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="89">
         <f ca="1">V44</f>
         <v>0</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="89"/>
+      <c r="B12" s="91"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2100,12 +2100,12 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="92" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
+      <c r="B15" s="92"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -2118,13 +2118,13 @@
       <c r="I15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="114"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="92"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="51" t="s">
@@ -2143,7 +2143,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="51" t="s">
@@ -2162,7 +2162,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="D18" s="12"/>
       <c r="E18" s="53" t="s">
         <v>51</v>
@@ -2177,7 +2177,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="58">
         <v>1</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="58">
         <v>2</v>
       </c>
@@ -2363,14 +2363,16 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="58">
         <v>3</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="65">
+        <v>1243658</v>
+      </c>
       <c r="F21" s="66" t="s">
         <v>98</v>
       </c>
@@ -2394,7 +2396,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1243658</v>
       </c>
       <c r="N21" s="50">
         <f t="array" ref="N21">SUM(G21:I21/$G$17:$I$17*$G$16:$I$16)</f>
@@ -2454,14 +2456,16 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="58">
         <v>4</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="65">
+        <v>851115</v>
+      </c>
       <c r="F22" s="66" t="s">
         <v>99</v>
       </c>
@@ -2485,7 +2489,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>851115</v>
       </c>
       <c r="N22" s="50">
         <f t="array" ref="N22">SUM(G22:I22/$G$17:$I$17*$G$16:$I$16)</f>
@@ -2545,16 +2549,18 @@
       </c>
     </row>
     <row r="23" spans="2:27" s="67" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="58">
         <v>5</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="65">
+        <v>1662413</v>
+      </c>
       <c r="F23" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="28">
         <v>0.16600000000000001</v>
@@ -2576,7 +2582,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1662413</v>
       </c>
       <c r="N23" s="68">
         <f t="array" ref="N23">SUM(G23:I23/$G$17:$I$17*$G$16:$I$16)</f>
@@ -2636,16 +2642,18 @@
       </c>
     </row>
     <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="58">
         <v>6</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="65">
+        <v>1274447</v>
+      </c>
       <c r="F24" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="30">
         <v>0.16600000000000001</v>
@@ -2667,7 +2675,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1274447</v>
       </c>
       <c r="N24" s="68">
         <f t="array" ref="N24">SUM(G24:I24/$G$17:$I$17*$G$16:$I$16)</f>
@@ -2727,7 +2735,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="58">
         <v>7</v>
       </c>
@@ -2810,7 +2818,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="58">
         <v>8</v>
       </c>
@@ -2893,7 +2901,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="58">
         <v>9</v>
       </c>
@@ -2976,7 +2984,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="58">
         <v>10</v>
       </c>
@@ -3059,7 +3067,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="58">
         <v>11</v>
       </c>
@@ -3142,7 +3150,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="58">
         <v>12</v>
       </c>
@@ -3225,7 +3233,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="58">
         <v>13</v>
       </c>
@@ -3308,7 +3316,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="58">
         <v>14</v>
       </c>
@@ -3391,7 +3399,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="58">
         <v>15</v>
       </c>
@@ -3474,7 +3482,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="58">
         <v>16</v>
       </c>
@@ -3557,7 +3565,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="58">
         <v>17</v>
       </c>
@@ -3640,7 +3648,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="58">
         <v>18</v>
       </c>
@@ -3723,7 +3731,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="58">
         <v>19</v>
       </c>
@@ -3806,7 +3814,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="58">
         <v>20</v>
       </c>
@@ -3889,7 +3897,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="58">
         <v>21</v>
       </c>
@@ -3972,7 +3980,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="58">
         <v>22</v>
       </c>
@@ -4055,7 +4063,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="58">
         <v>23</v>
       </c>
@@ -4138,7 +4146,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="58">
         <v>24</v>
       </c>
@@ -4221,7 +4229,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="58">
         <v>25</v>
       </c>
@@ -4304,7 +4312,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
+      <c r="B44" s="92"/>
       <c r="D44" s="19"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4355,7 +4363,7 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="90"/>
+      <c r="B45" s="92"/>
       <c r="G45" s="54"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -5000,6 +5008,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
@@ -5016,7 +5025,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -5024,12 +5032,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:I44">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>LEN(G$47)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:J46">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>LEN(G47)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
